--- a/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T07:25:16+00:00</t>
+    <t>2024-04-25T07:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T07:26:54+00:00</t>
+    <t>2024-04-25T07:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T07:46:36+00:00</t>
+    <t>2024-04-25T07:51:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T07:51:22+00:00</t>
+    <t>2024-04-25T07:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T07:52:09+00:00</t>
+    <t>2024-04-25T07:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/nr-update-index-page/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T07:57:56+00:00</t>
+    <t>2024-04-25T08:29:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
